--- a/Experiments/231114_mod3/plasmids_sp_231114.xlsx
+++ b/Experiments/231114_mod3/plasmids_sp_231114.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/GitHub/WHISPR/Experiments/231114_mod3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971BFA4B-9578-8043-AA26-907E3626B108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC0BEFA-D22C-0548-832C-B930F93DEBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,7 +412,7 @@
     <t>ACS_l</t>
   </si>
   <si>
-    <t>K19</t>
+    <t>M10</t>
   </si>
 </sst>
 </file>
@@ -792,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="162" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="162" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
